--- a/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2056,28 +2056,25 @@
     <t>*</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>hz</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
     <t>MINIO</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com</t>
-  </si>
-  <si>
-    <t>******</t>
-  </si>
-  <si>
-    <t>hz</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>文件容量配置表</t>
@@ -3225,7 +3222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3319,35 +3316,67 @@
       <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>70</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
         <v>73</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O9" t="s">
         <v>74</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" t="s">
-        <v>76</v>
+      <c r="S9" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3396,28 +3425,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s" s="49">
         <v>78</v>
       </c>
-      <c r="D7" t="s" s="49">
+      <c r="E7" t="s" s="50">
         <v>79</v>
       </c>
-      <c r="E7" t="s" s="50">
+      <c r="F7" t="s" s="51">
         <v>80</v>
       </c>
-      <c r="F7" t="s" s="51">
+      <c r="G7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>82</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>84</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -3425,19 +3454,19 @@
         <v>69</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
         <v>86</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
         <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -3448,34 +3477,34 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s" s="52">
         <v>89</v>
       </c>
-      <c r="D10" t="s" s="52">
+      <c r="E10" t="s" s="53">
         <v>90</v>
       </c>
-      <c r="E10" t="s" s="53">
+      <c r="F10" t="s" s="54">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s" s="55">
         <v>91</v>
       </c>
-      <c r="F10" t="s" s="54">
-        <v>81</v>
-      </c>
-      <c r="G10" t="s" s="55">
+      <c r="H10" t="s" s="56">
         <v>92</v>
       </c>
-      <c r="H10" t="s" s="56">
+      <c r="I10" t="s">
         <v>93</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" t="s">
         <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-      <c r="L10" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -3483,25 +3512,25 @@
         <v>69</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
         <v>96</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>97</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>99</v>
-      </c>
-      <c r="L11" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -3509,25 +3538,25 @@
         <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" t="s">
         <v>101</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
         <v>103</v>
-      </c>
-      <c r="J12" t="s">
-        <v>87</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-file\hzero_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFE07E2-7F6B-46A7-8044-D1FA8ACD883A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="文件存储配置" r:id="rId5" sheetId="2"/>
-    <sheet name="文件上传配置" r:id="rId6" sheetId="3"/>
+    <sheet name="文件存储配置" sheetId="2" r:id="rId2"/>
+    <sheet name="文件上传配置" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1997,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2021-02-03</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2053,30 +2054,57 @@
     <t>create_bucket_flag</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
+    <t>ALI</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>oss-cn-beijing.aliyuncs.com</t>
+  </si>
+  <si>
+    <t>https://oss-cn-beijing.aliyuncs.com</t>
+  </si>
+  <si>
+    <t>******</t>
+  </si>
+  <si>
+    <t>jdhzero</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>public-read-write</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
     <t>http://hzerodevoss.saas.hand-china.com</t>
   </si>
   <si>
-    <t>******</t>
-  </si>
-  <si>
     <t>hz</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>MINIO</t>
-  </si>
-  <si>
     <t>文件容量配置表</t>
   </si>
   <si>
@@ -2107,7 +2135,7 @@
     <t>MB</t>
   </si>
   <si>
-    <t>30</t>
+    <t>25</t>
   </si>
   <si>
     <t>文件上传配置表</t>
@@ -2144,25 +2172,12 @@
   </si>
   <si>
     <t>jpg,jpeg,png</t>
-  </si>
-  <si>
-    <t>hiot</t>
-  </si>
-  <si>
-    <t>hiot01/</t>
-  </si>
-  <si>
-    <t>application</t>
-  </si>
-  <si>
-    <t>7z,tar,rar,zip,tbz,bz2,bz,tgz,gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="43">
     <font>
       <sz val="12"/>
@@ -2282,129 +2297,154 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="42"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="53"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="48"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2597,6 +2637,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2612,35 +2677,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2980,36 +3020,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3018,21 +3058,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="52"/>
+      <c r="E3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3143,11 +3183,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3185,19 +3225,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="52"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="52"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3221,39 +3261,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:21">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:21">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3263,13 +3305,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="46">
+      <c r="D7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="47">
+      <c r="E7" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="48">
+      <c r="F7" s="43" t="s">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3311,113 +3353,138 @@
       <c r="S7" t="s">
         <v>68</v>
       </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21">
       <c r="E8" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
       </c>
       <c r="I8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="J8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="s">
         <v>73</v>
       </c>
-      <c r="O8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P8" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>75</v>
-      </c>
-      <c r="S8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="E9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
         <v>73</v>
       </c>
-      <c r="O9" t="s">
-        <v>74</v>
-      </c>
-      <c r="P9" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-      <c r="S9" t="s">
-        <v>70</v>
+      <c r="T9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
+    <row r="1" spans="1:14">
+      <c r="A1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="40">
+      <c r="B1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="41">
+      <c r="C1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="42">
+      <c r="D1" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="43">
+    <row r="4" spans="1:14">
+      <c r="E4" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="44">
+      <c r="F4" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="45">
+      <c r="G4" s="40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3425,51 +3492,63 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s" s="49">
+        <v>86</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s" s="50">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s" s="51">
+      <c r="G8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" t="s">
-        <v>84</v>
+      <c r="L8" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="8">
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3477,89 +3556,77 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s" s="52">
+        <v>97</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E10" t="s" s="53">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s" s="54">
+      <c r="G10" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s" s="55">
-        <v>91</v>
-      </c>
-      <c r="H10" t="s" s="56">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" t="s">
-        <v>98</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L12" t="s">
-        <v>103</v>
+      <c r="N11" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\项目\hzero-resource\init-data\hzero-file\hzero_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-file\src\main\resources\script\db\init-data\hzero_file\hzero_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFE07E2-7F6B-46A7-8044-D1FA8ACD883A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
   <si>
     <r>
       <rPr>
@@ -45,7 +44,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -77,7 +75,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -96,7 +93,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -115,7 +111,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -166,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -185,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -204,7 +197,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -227,7 +219,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -248,7 +239,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -270,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -291,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -322,7 +310,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -353,7 +340,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -372,7 +358,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -391,7 +376,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -410,7 +394,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -429,7 +412,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -458,7 +440,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -477,7 +458,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -496,7 +476,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -515,7 +494,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -546,7 +524,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -565,7 +542,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -584,7 +560,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -604,7 +579,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -623,7 +597,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -643,7 +616,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -674,7 +646,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -693,7 +664,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -717,7 +687,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -736,7 +705,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -755,7 +723,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -774,7 +741,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -793,7 +759,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -824,7 +789,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -855,7 +819,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -886,7 +849,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -905,7 +867,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -929,7 +890,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -948,7 +908,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -967,7 +926,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -987,7 +945,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -1007,7 +964,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1027,7 +983,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1048,7 +1003,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1068,7 +1022,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1084,7 +1037,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1105,7 +1057,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1136,7 +1087,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1155,7 +1105,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1176,7 +1125,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1208,7 +1156,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1227,7 +1174,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1246,7 +1192,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1280,7 +1225,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1299,7 +1243,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1318,7 +1261,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1337,7 +1279,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1382,7 +1323,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1427,7 +1367,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1461,7 +1400,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1480,7 +1418,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1499,7 +1436,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1519,7 +1455,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1543,7 +1478,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1562,7 +1496,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1581,7 +1514,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1601,7 +1533,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1655,7 +1586,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1674,7 +1604,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1693,7 +1622,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1713,7 +1641,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1732,7 +1659,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1751,7 +1677,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1770,7 +1695,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1790,7 +1714,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1809,7 +1732,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1828,7 +1750,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1847,7 +1768,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1912,7 +1832,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1943,7 +1862,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1962,7 +1880,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -2127,9 +2044,6 @@
   </si>
   <si>
     <t>storage_size</t>
-  </si>
-  <si>
-    <t>10240</t>
   </si>
   <si>
     <t>MB</t>
@@ -2177,102 +2091,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2285,7 +2109,78 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2637,6 +2532,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2660,8 +2557,6 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2680,7 +2575,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -3020,26 +2915,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
     <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3054,7 +2949,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
@@ -3068,7 +2963,7 @@
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:8">
       <c r="C4" s="55" t="s">
         <v>3</v>
       </c>
@@ -3089,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3109,7 +3004,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3123,7 +3018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3134,7 +3029,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3166,7 +3061,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3189,7 +3084,7 @@
       <c r="D19" s="56"/>
       <c r="E19" s="56"/>
     </row>
-    <row r="20" spans="3:5" ht="18">
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3205,7 +3100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3213,7 +3108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3239,7 +3134,7 @@
       </c>
       <c r="E26" s="52"/>
     </row>
-    <row r="27" spans="3:5" ht="51.75">
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3254,21 +3149,21 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="27" t="s">
@@ -3446,18 +3341,20 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="34" t="s">
@@ -3529,17 +3426,17 @@
       <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8">
+        <v>102400</v>
+      </c>
+      <c r="H8" t="s">
         <v>94</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
         <v>95</v>
-      </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" t="s">
-        <v>96</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -3556,25 +3453,25 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="E10" s="48" t="s">
         <v>98</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>99</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="I10" t="s">
         <v>101</v>
-      </c>
-      <c r="I10" t="s">
-        <v>102</v>
       </c>
       <c r="J10" t="s">
         <v>92</v>
@@ -3583,7 +3480,7 @@
         <v>93</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M10" t="s">
         <v>69</v>
@@ -3600,22 +3497,22 @@
         <v>78</v>
       </c>
       <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
         <v>104</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>105</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>107</v>
-      </c>
-      <c r="L11" t="s">
-        <v>108</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
@@ -3625,7 +3522,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_file/hzero_file/hzero-file.xlsx
@@ -3,31 +3,31 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-file\src\main\resources\script\db\init-data\hzero_file\hzero_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="文件存储配置" sheetId="2" r:id="rId2"/>
-    <sheet name="文件上传配置" sheetId="3" r:id="rId3"/>
+    <sheet name="文件存储配置" r:id="rId5" sheetId="2"/>
+    <sheet name="文件上传配置" r:id="rId6" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="112">
   <si>
     <r>
       <rPr>
@@ -44,6 +44,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>merge</t>
     </r>
@@ -75,6 +76,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">sheet </t>
     </r>
@@ -93,6 +95,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -111,6 +114,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">D7 </t>
     </r>
@@ -161,6 +165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -179,6 +184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -197,6 +203,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -219,6 +226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -239,6 +247,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -260,6 +269,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -280,6 +290,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -310,6 +321,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>=</t>
     </r>
@@ -340,6 +352,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -358,6 +371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">,sheet </t>
     </r>
@@ -376,6 +390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -394,6 +409,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -412,6 +428,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>!</t>
     </r>
@@ -440,6 +457,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>*</t>
     </r>
@@ -458,6 +476,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -476,6 +495,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -494,6 +514,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -524,6 +545,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -542,6 +564,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -560,6 +583,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -579,6 +603,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -597,6 +622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">*
 </t>
@@ -616,6 +642,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -646,6 +673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">oracle </t>
     </r>
@@ -664,6 +692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -687,6 +716,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -705,6 +735,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -723,6 +754,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -741,6 +773,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -759,6 +792,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -789,6 +823,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -819,6 +854,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -849,6 +885,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>#</t>
     </r>
@@ -867,6 +904,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -890,6 +928,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(TYPE)</t>
     </r>
@@ -908,6 +947,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -926,6 +966,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 _ID</t>
@@ -945,6 +986,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 _DATE </t>
@@ -964,6 +1006,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -983,6 +1026,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>VARCHAR</t>
     </r>
@@ -1003,6 +1047,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1022,6 +1067,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:
 yyyy-MM-dd HH:mm:ss
@@ -1037,6 +1083,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">:LANG </t>
     </r>
@@ -1057,6 +1104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">TL </t>
     </r>
@@ -1087,6 +1135,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1105,6 +1154,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1125,6 +1175,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1156,6 +1207,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1174,6 +1226,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1192,6 +1245,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1225,6 +1279,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>.</t>
     </r>
@@ -1243,6 +1298,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">Excel </t>
     </r>
@@ -1261,6 +1317,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1279,6 +1336,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1323,6 +1381,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1367,6 +1426,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E9 </t>
     </r>
@@ -1400,6 +1460,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1418,6 +1479,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1436,6 +1498,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1455,6 +1518,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1478,6 +1542,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">RESOURCE </t>
     </r>
@@ -1496,6 +1561,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">E23 </t>
     </r>
@@ -1514,6 +1580,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1533,6 +1600,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1586,6 +1654,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
@@ -1604,6 +1673,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1622,6 +1692,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A9 </t>
     </r>
@@ -1641,6 +1712,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1659,6 +1731,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F11 </t>
     </r>
@@ -1677,6 +1750,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, F11 </t>
     </r>
@@ -1695,6 +1769,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">A10
 </t>
@@ -1714,6 +1789,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">F10 </t>
     </r>
@@ -1732,6 +1808,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">G11 </t>
     </r>
@@ -1750,6 +1827,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">, G11 </t>
     </r>
@@ -1768,6 +1846,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">B10
 </t>
@@ -1832,6 +1911,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1862,6 +1942,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>,</t>
     </r>
@@ -1880,6 +1961,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">.
 </t>
@@ -1914,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2021-02-03</t>
+    <t>2021-10-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -1935,7 +2017,7 @@
     <t>storage_type</t>
   </si>
   <si>
-    <t>domain</t>
+    <t>domain_url</t>
   </si>
   <si>
     <t>end_point</t>
@@ -1989,7 +2071,7 @@
     <t>oss-cn-beijing.aliyuncs.com</t>
   </si>
   <si>
-    <t>https://oss-cn-beijing.aliyuncs.com</t>
+    <t>http://oss.hzero.org</t>
   </si>
   <si>
     <t>******</t>
@@ -2013,7 +2095,10 @@
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>hz</t>
@@ -2046,10 +2131,13 @@
     <t>storage_size</t>
   </si>
   <si>
+    <t>102400</t>
+  </si>
+  <si>
     <t>MB</t>
   </si>
   <si>
-    <t>25</t>
+    <t>30</t>
   </si>
   <si>
     <t>文件上传配置表</t>
@@ -2082,21 +2170,118 @@
     <t>image</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>jpg,jpeg,png</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>131779822856704002</t>
+  </si>
+  <si>
+    <t>iiot01/</t>
+  </si>
+  <si>
+    <t>32618</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41">
+  <numFmts count="0"/>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFF4B183"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2109,237 +2294,141 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFF4B183"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian (正文)"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2532,31 +2621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2572,6 +2636,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2918,56 +3007,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="54" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="55" t="s">
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2984,7 +3073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -3004,7 +3093,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -3018,7 +3107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3029,7 +3118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3061,7 +3150,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3078,13 +3167,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3092,7 +3181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3100,7 +3189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3108,7 +3197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3120,21 +3209,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="52"/>
+      <c r="E26" s="27"/>
     </row>
-    <row r="27" spans="3:5" ht="52.2">
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3149,48 +3238,46 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3200,13 +3287,13 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" t="s" s="46">
         <v>53</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" t="s" s="47">
         <v>54</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" t="s" s="48">
         <v>55</v>
       </c>
       <c r="G7" t="s">
@@ -3255,7 +3342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8">
       <c r="E8" t="s">
         <v>71</v>
       </c>
@@ -3299,18 +3386,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9">
       <c r="E9" t="s">
         <v>71</v>
       </c>
       <c r="F9" t="s">
         <v>82</v>
       </c>
-      <c r="G9">
-        <v>3</v>
+      <c r="G9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
         <v>76</v>
@@ -3319,7 +3409,7 @@
         <v>76</v>
       </c>
       <c r="N9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
         <v>78</v>
@@ -3328,7 +3418,7 @@
         <v>73</v>
       </c>
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S9" t="s">
         <v>73</v>
@@ -3341,47 +3431,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="39">
         <v>44</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" t="s" s="40">
         <v>45</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" t="s" s="41">
         <v>9</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" t="s" s="42">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="E4" s="38" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="43">
         <v>47</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" t="s" s="44">
         <v>48</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" t="s" s="45">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3389,28 +3476,28 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="D7" t="s" s="49">
         <v>88</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="E7" t="s" s="50">
         <v>89</v>
       </c>
+      <c r="F7" t="s" s="51">
+        <v>90</v>
+      </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
         <v>69</v>
@@ -3419,24 +3506,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8">
       <c r="E8" t="s">
         <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
       </c>
-      <c r="G8">
-        <v>102400</v>
+      <c r="G8" t="s">
+        <v>95</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
         <v>80</v>
@@ -3445,7 +3532,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3453,34 +3540,34 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="50" t="s">
+      <c r="D10" t="s" s="52">
         <v>99</v>
       </c>
-      <c r="H10" s="51" t="s">
+      <c r="E10" t="s" s="53">
         <v>100</v>
       </c>
+      <c r="F10" t="s" s="54">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s" s="55">
+        <v>101</v>
+      </c>
+      <c r="H10" t="s" s="56">
+        <v>102</v>
+      </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s">
         <v>69</v>
@@ -3489,7 +3576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11">
       <c r="E11" t="s">
         <v>71</v>
       </c>
@@ -3497,33 +3584,63 @@
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s">
         <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>